--- a/docs/codes/projects/Presupuesto.xlsx
+++ b/docs/codes/projects/Presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nolbe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12449119-B1EB-40F5-A12C-1CCBC54EB0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB8E972-F367-44CF-B2A6-1E730A85A600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,7 +642,7 @@
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,6 +691,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -700,6 +715,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="14" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="14" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="14" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -712,32 +739,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="14" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="14" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="14" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -759,62 +762,7 @@
     <cellStyle name="Título 3" xfId="14" builtinId="18"/>
     <cellStyle name="Valor del periodo" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <border>
         <top style="thin">
@@ -1087,85 +1035,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="46" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:13" ht="46" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
@@ -1197,8 +1145,8 @@
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1240,40 +1188,40 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:9" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="24"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
@@ -1288,7 +1236,7 @@
       <c r="E6" s="11">
         <v>40</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="19">
         <v>35000</v>
       </c>
       <c r="G6" s="12">
@@ -1315,7 +1263,7 @@
       <c r="E7" s="9">
         <v>60</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="17">
         <v>25000</v>
       </c>
       <c r="G7" s="10">
@@ -1342,7 +1290,7 @@
       <c r="E8" s="9">
         <v>60</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="17">
         <v>25000</v>
       </c>
       <c r="G8" s="10">
@@ -1369,7 +1317,7 @@
       <c r="E9" s="9">
         <v>60</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="17">
         <v>25000</v>
       </c>
       <c r="G9" s="10">
@@ -1396,7 +1344,7 @@
       <c r="E10" s="9">
         <v>30</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="17">
         <v>20000</v>
       </c>
       <c r="G10" s="10">
@@ -1411,7 +1359,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -1423,7 +1371,7 @@
       <c r="E11" s="9">
         <v>30</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="17">
         <v>2200</v>
       </c>
       <c r="G11" s="10" t="s">
@@ -1438,7 +1386,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -1450,10 +1398,10 @@
       <c r="E12" s="9">
         <v>1</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="17">
         <v>20000</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="32" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -1465,7 +1413,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -1477,7 +1425,7 @@
       <c r="E13" s="9">
         <v>1</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="18">
         <v>15000</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -1492,7 +1440,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -1504,7 +1452,7 @@
       <c r="E14" s="9">
         <v>1</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="18">
         <f>1/100*SUM(I6:I13)</f>
         <v>66010</v>
       </c>
@@ -1520,16 +1468,16 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="20">
         <f>SUM(I6:I14)</f>
         <v>6667010</v>
       </c>
@@ -1541,6 +1489,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -1549,10 +1498,9 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1566,15 +1514,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B320A6865594E542AE6FFA3BA7F49FDA" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9c422ce6fd7d051c6e02c5858bd8e37a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb309ed8-a3ac-407a-ab90-334ab3a6400f" xmlns:ns3="fe7f5f9c-66a7-4a12-94f8-9f30ef7fcbb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdb87c78fc662a645898626995d5eb30" ns2:_="" ns3:_="">
     <xsd:import namespace="cb309ed8-a3ac-407a-ab90-334ab3a6400f"/>
@@ -1797,15 +1736,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BF7DC0-DEA4-4237-880D-0EF8CEC7EAC0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F800AE0-260F-4195-80A7-4D1368AB2D5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1822,4 +1762,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BF7DC0-DEA4-4237-880D-0EF8CEC7EAC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>